--- a/cleaned data/States.xlsx
+++ b/cleaned data/States.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Home Sales</t>
   </si>
   <si>
     <t>Median Sales Price</t>
-  </si>
-  <si>
-    <t>Thousands Of Residents</t>
-  </si>
-  <si>
-    <t>Household Median Income</t>
   </si>
   <si>
     <t>Sales Per Thousand Residents</t>
@@ -545,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -567,16 +561,10 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -585,21 +573,15 @@
         <v>325000</v>
       </c>
       <c r="D2">
-        <v>733.583</v>
+        <v>0.0218107562470777</v>
       </c>
       <c r="E2">
-        <v>81133</v>
-      </c>
-      <c r="F2">
-        <v>0.0218107562470777</v>
-      </c>
-      <c r="G2">
         <v>4.00576830636116</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>219</v>
@@ -608,21 +590,15 @@
         <v>262000</v>
       </c>
       <c r="D3">
-        <v>5074.296</v>
+        <v>0.04315869629993993</v>
       </c>
       <c r="E3">
-        <v>56929</v>
-      </c>
-      <c r="F3">
-        <v>0.04315869629993993</v>
-      </c>
-      <c r="G3">
         <v>4.602223822656291</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>235</v>
@@ -631,21 +607,15 @@
         <v>240000</v>
       </c>
       <c r="D4">
-        <v>3045.637</v>
+        <v>0.07715955644090218</v>
       </c>
       <c r="E4">
-        <v>50784</v>
-      </c>
-      <c r="F4">
-        <v>0.07715955644090218</v>
-      </c>
-      <c r="G4">
         <v>4.725897920604915</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>368</v>
@@ -654,21 +624,15 @@
         <v>426500</v>
       </c>
       <c r="D5">
-        <v>7359.197</v>
+        <v>0.05000545575828449</v>
       </c>
       <c r="E5">
-        <v>70821</v>
-      </c>
-      <c r="F5">
-        <v>0.05000545575828449</v>
-      </c>
-      <c r="G5">
         <v>6.022225046243346</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>778</v>
@@ -677,21 +641,15 @@
         <v>695000</v>
       </c>
       <c r="D6">
-        <v>39029.342</v>
+        <v>0.01993372063510577</v>
       </c>
       <c r="E6">
-        <v>81575</v>
-      </c>
-      <c r="F6">
-        <v>0.01993372063510577</v>
-      </c>
-      <c r="G6">
         <v>8.519767085504137</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>668</v>
@@ -700,21 +658,15 @@
         <v>583000</v>
       </c>
       <c r="D7">
-        <v>5839.926</v>
+        <v>0.1143850110429481</v>
       </c>
       <c r="E7">
-        <v>84954</v>
-      </c>
-      <c r="F7">
-        <v>0.1143850110429481</v>
-      </c>
-      <c r="G7">
         <v>6.862537373166655</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>732</v>
@@ -723,21 +675,15 @@
         <v>439900</v>
       </c>
       <c r="D8">
-        <v>3626.205</v>
+        <v>0.2018639321273894</v>
       </c>
       <c r="E8">
-        <v>80958</v>
-      </c>
-      <c r="F8">
-        <v>0.2018639321273894</v>
-      </c>
-      <c r="G8">
         <v>5.433681662096395</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -746,21 +692,15 @@
         <v>960000</v>
       </c>
       <c r="D9">
-        <v>671.803</v>
+        <v>0.01935091090691765</v>
       </c>
       <c r="E9">
-        <v>90640</v>
-      </c>
-      <c r="F9">
-        <v>0.01935091090691765</v>
-      </c>
-      <c r="G9">
         <v>10.59135039717564</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>66</v>
@@ -769,21 +709,15 @@
         <v>382450</v>
       </c>
       <c r="D10">
-        <v>1018.396</v>
+        <v>0.0648077957886716</v>
       </c>
       <c r="E10">
-        <v>68687</v>
-      </c>
-      <c r="F10">
-        <v>0.0648077957886716</v>
-      </c>
-      <c r="G10">
         <v>5.568011414095826</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1288</v>
@@ -792,21 +726,15 @@
         <v>365000</v>
       </c>
       <c r="D11">
-        <v>22244.823</v>
+        <v>0.05790111254200584</v>
       </c>
       <c r="E11">
-        <v>59734</v>
-      </c>
-      <c r="F11">
-        <v>0.05790111254200584</v>
-      </c>
-      <c r="G11">
         <v>6.110422874744701</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>657</v>
@@ -815,21 +743,15 @@
         <v>349900</v>
       </c>
       <c r="D12">
-        <v>10912.876</v>
+        <v>0.06020411118022417</v>
       </c>
       <c r="E12">
-        <v>61497</v>
-      </c>
-      <c r="F12">
-        <v>0.06020411118022417</v>
-      </c>
-      <c r="G12">
         <v>5.689708441062166</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -838,21 +760,15 @@
         <v>727500</v>
       </c>
       <c r="D13">
-        <v>1440.196</v>
+        <v>0.01388699871406392</v>
       </c>
       <c r="E13">
-        <v>82199</v>
-      </c>
-      <c r="F13">
-        <v>0.01388699871406392</v>
-      </c>
-      <c r="G13">
         <v>8.850472633487025</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>170</v>
@@ -861,21 +777,15 @@
         <v>214950</v>
       </c>
       <c r="D14">
-        <v>3200.517</v>
+        <v>0.0531164183786557</v>
       </c>
       <c r="E14">
-        <v>72429</v>
-      </c>
-      <c r="F14">
-        <v>0.0531164183786557</v>
-      </c>
-      <c r="G14">
         <v>2.967733918734209</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>133</v>
@@ -884,21 +794,15 @@
         <v>429900</v>
       </c>
       <c r="D15">
-        <v>1939.033</v>
+        <v>0.06859089040774448</v>
       </c>
       <c r="E15">
-        <v>76918</v>
-      </c>
-      <c r="F15">
-        <v>0.06859089040774448</v>
-      </c>
-      <c r="G15">
         <v>5.589068878545984</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1549</v>
@@ -907,21 +811,15 @@
         <v>225000</v>
       </c>
       <c r="D16">
-        <v>12582.032</v>
+        <v>0.1231120696561573</v>
       </c>
       <c r="E16">
-        <v>79253</v>
-      </c>
-      <c r="F16">
-        <v>0.1231120696561573</v>
-      </c>
-      <c r="G16">
         <v>2.839009248861242</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>532</v>
@@ -930,21 +828,15 @@
         <v>225000</v>
       </c>
       <c r="D17">
-        <v>6833.037</v>
+        <v>0.07785703487336597</v>
       </c>
       <c r="E17">
-        <v>70190</v>
-      </c>
-      <c r="F17">
-        <v>0.07785703487336597</v>
-      </c>
-      <c r="G17">
         <v>3.205584841145462</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>175</v>
@@ -953,21 +845,15 @@
         <v>205000</v>
       </c>
       <c r="D18">
-        <v>2937.15</v>
+        <v>0.0595815671654495</v>
       </c>
       <c r="E18">
-        <v>75979</v>
-      </c>
-      <c r="F18">
-        <v>0.0595815671654495</v>
-      </c>
-      <c r="G18">
         <v>2.698113952539518</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>356</v>
@@ -976,21 +862,15 @@
         <v>229950</v>
       </c>
       <c r="D19">
-        <v>4512.31</v>
+        <v>0.07889528866589396</v>
       </c>
       <c r="E19">
-        <v>55629</v>
-      </c>
-      <c r="F19">
-        <v>0.07889528866589396</v>
-      </c>
-      <c r="G19">
         <v>4.133635334088336</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>174</v>
@@ -999,21 +879,15 @@
         <v>218500</v>
       </c>
       <c r="D20">
-        <v>4590.241</v>
+        <v>0.03790650643397591</v>
       </c>
       <c r="E20">
-        <v>57206</v>
-      </c>
-      <c r="F20">
-        <v>0.03790650643397591</v>
-      </c>
-      <c r="G20">
         <v>3.81952941999091</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>149</v>
@@ -1022,21 +896,15 @@
         <v>579900</v>
       </c>
       <c r="D21">
-        <v>6981.974</v>
+        <v>0.02134066955849449</v>
       </c>
       <c r="E21">
-        <v>86566</v>
-      </c>
-      <c r="F21">
-        <v>0.02134066955849449</v>
-      </c>
-      <c r="G21">
         <v>6.698934916710948</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>351</v>
@@ -1045,21 +913,15 @@
         <v>399900</v>
       </c>
       <c r="D22">
-        <v>6164.66</v>
+        <v>0.05693744667183592</v>
       </c>
       <c r="E22">
-        <v>97332</v>
-      </c>
-      <c r="F22">
-        <v>0.05693744667183592</v>
-      </c>
-      <c r="G22">
         <v>4.108617926272963</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>116</v>
@@ -1068,21 +930,15 @@
         <v>442400</v>
       </c>
       <c r="D23">
-        <v>1385.34</v>
+        <v>0.08373395700694415</v>
       </c>
       <c r="E23">
-        <v>71139</v>
-      </c>
-      <c r="F23">
-        <v>0.08373395700694415</v>
-      </c>
-      <c r="G23">
         <v>6.218811060037392</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>789</v>
@@ -1091,21 +947,15 @@
         <v>249900</v>
       </c>
       <c r="D24">
-        <v>10034.113</v>
+        <v>0.07863176346529085</v>
       </c>
       <c r="E24">
-        <v>64488</v>
-      </c>
-      <c r="F24">
-        <v>0.07863176346529085</v>
-      </c>
-      <c r="G24">
         <v>3.87513956084853</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>357</v>
@@ -1114,21 +964,15 @@
         <v>333490</v>
       </c>
       <c r="D25">
-        <v>5717.184</v>
+        <v>0.06244332874366122</v>
       </c>
       <c r="E25">
-        <v>80441</v>
-      </c>
-      <c r="F25">
-        <v>0.06244332874366122</v>
-      </c>
-      <c r="G25">
         <v>4.145771434964757</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>1120</v>
@@ -1137,21 +981,15 @@
         <v>259899</v>
       </c>
       <c r="D26">
-        <v>6177.957</v>
+        <v>0.1812897046709778</v>
       </c>
       <c r="E26">
-        <v>63594</v>
-      </c>
-      <c r="F26">
-        <v>0.1812897046709778</v>
-      </c>
-      <c r="G26">
         <v>4.086847815831682</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>101</v>
@@ -1160,21 +998,15 @@
         <v>230000</v>
       </c>
       <c r="D27">
-        <v>2940.057</v>
+        <v>0.03435307546758447</v>
       </c>
       <c r="E27">
-        <v>46637</v>
-      </c>
-      <c r="F27">
-        <v>0.03435307546758447</v>
-      </c>
-      <c r="G27">
         <v>4.931706584900401</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>79</v>
@@ -1183,21 +1015,15 @@
         <v>435000</v>
       </c>
       <c r="D28">
-        <v>1122.867</v>
+        <v>0.07035561647105133</v>
       </c>
       <c r="E28">
-        <v>64999</v>
-      </c>
-      <c r="F28">
-        <v>0.07035561647105133</v>
-      </c>
-      <c r="G28">
         <v>6.692410652471576</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>1142</v>
@@ -1206,21 +1032,15 @@
         <v>385000</v>
       </c>
       <c r="D29">
-        <v>10698.973</v>
+        <v>0.1067392169323168</v>
       </c>
       <c r="E29">
-        <v>62891</v>
-      </c>
-      <c r="F29">
-        <v>0.1067392169323168</v>
-      </c>
-      <c r="G29">
         <v>6.121702628356998</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>60</v>
@@ -1229,21 +1049,15 @@
         <v>259950</v>
       </c>
       <c r="D30">
-        <v>779.261</v>
+        <v>0.07699602572180567</v>
       </c>
       <c r="E30">
-        <v>68882</v>
-      </c>
-      <c r="F30">
-        <v>0.07699602572180567</v>
-      </c>
-      <c r="G30">
         <v>3.773845126448129</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>130</v>
@@ -1252,21 +1066,15 @@
         <v>265000</v>
       </c>
       <c r="D31">
-        <v>1967.923</v>
+        <v>0.06605949521398957</v>
       </c>
       <c r="E31">
-        <v>78109</v>
-      </c>
-      <c r="F31">
-        <v>0.06605949521398957</v>
-      </c>
-      <c r="G31">
         <v>3.392694823899935</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>62</v>
@@ -1275,21 +1083,15 @@
         <v>425000</v>
       </c>
       <c r="D32">
-        <v>1395.231</v>
+        <v>0.04443708604524985</v>
       </c>
       <c r="E32">
-        <v>88841</v>
-      </c>
-      <c r="F32">
-        <v>0.04443708604524985</v>
-      </c>
-      <c r="G32">
         <v>4.783827286950845</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>260</v>
@@ -1298,21 +1100,15 @@
         <v>469000</v>
       </c>
       <c r="D33">
-        <v>9261.699000000001</v>
+        <v>0.02807260309366564</v>
       </c>
       <c r="E33">
-        <v>88559</v>
-      </c>
-      <c r="F33">
-        <v>0.02807260309366564</v>
-      </c>
-      <c r="G33">
         <v>5.295904425298389</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>95</v>
@@ -1321,21 +1117,15 @@
         <v>333500</v>
       </c>
       <c r="D34">
-        <v>2113.344</v>
+        <v>0.04495245449865237</v>
       </c>
       <c r="E34">
-        <v>53463</v>
-      </c>
-      <c r="F34">
-        <v>0.04495245449865237</v>
-      </c>
-      <c r="G34">
         <v>6.237958962272974</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>120</v>
@@ -1344,21 +1134,15 @@
         <v>418250</v>
       </c>
       <c r="D35">
-        <v>3177.772</v>
+        <v>0.03776230642097671</v>
       </c>
       <c r="E35">
-        <v>64340</v>
-      </c>
-      <c r="F35">
-        <v>0.03776230642097671</v>
-      </c>
-      <c r="G35">
         <v>6.500621697233448</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>627</v>
@@ -1367,21 +1151,15 @@
         <v>465000</v>
       </c>
       <c r="D36">
-        <v>19677.151</v>
+        <v>0.0318643689830911</v>
       </c>
       <c r="E36">
-        <v>72920</v>
-      </c>
-      <c r="F36">
-        <v>0.0318643689830911</v>
-      </c>
-      <c r="G36">
         <v>6.376851343938563</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>957</v>
@@ -1390,21 +1168,15 @@
         <v>240000</v>
       </c>
       <c r="D37">
-        <v>11756.058</v>
+        <v>0.0814048382544557</v>
       </c>
       <c r="E37">
-        <v>62689</v>
-      </c>
-      <c r="F37">
-        <v>0.0814048382544557</v>
-      </c>
-      <c r="G37">
         <v>3.828422849303706</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>223</v>
@@ -1413,21 +1185,15 @@
         <v>199900</v>
       </c>
       <c r="D38">
-        <v>4019.8</v>
+        <v>0.05547539678590974</v>
       </c>
       <c r="E38">
-        <v>60096</v>
-      </c>
-      <c r="F38">
-        <v>0.05547539678590974</v>
-      </c>
-      <c r="G38">
         <v>3.32634451544196</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>176</v>
@@ -1436,21 +1202,15 @@
         <v>496000</v>
       </c>
       <c r="D39">
-        <v>4240.137</v>
+        <v>0.04150809278096439</v>
       </c>
       <c r="E39">
-        <v>81855</v>
-      </c>
-      <c r="F39">
-        <v>0.04150809278096439</v>
-      </c>
-      <c r="G39">
         <v>6.059495449270051</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>616</v>
@@ -1459,21 +1219,15 @@
         <v>275000</v>
       </c>
       <c r="D40">
-        <v>12972.008</v>
+        <v>0.04748686556468359</v>
       </c>
       <c r="E40">
-        <v>72627</v>
-      </c>
-      <c r="F40">
-        <v>0.04748686556468359</v>
-      </c>
-      <c r="G40">
         <v>3.786470596334696</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>48</v>
@@ -1482,21 +1236,15 @@
         <v>380000</v>
       </c>
       <c r="D41">
-        <v>1093.734</v>
+        <v>0.04388635628041188</v>
       </c>
       <c r="E41">
-        <v>74982</v>
-      </c>
-      <c r="F41">
-        <v>0.04388635628041188</v>
-      </c>
-      <c r="G41">
         <v>5.067882958576725</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>646</v>
@@ -1505,21 +1253,15 @@
         <v>363377</v>
       </c>
       <c r="D42">
-        <v>5282.634</v>
+        <v>0.1222874800714946</v>
       </c>
       <c r="E42">
-        <v>62542</v>
-      </c>
-      <c r="F42">
-        <v>0.1222874800714946</v>
-      </c>
-      <c r="G42">
         <v>5.810127594256659</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>83</v>
@@ -1528,21 +1270,15 @@
         <v>299900</v>
       </c>
       <c r="D43">
-        <v>909.824</v>
+        <v>0.09122643500281373</v>
       </c>
       <c r="E43">
-        <v>73893</v>
-      </c>
-      <c r="F43">
-        <v>0.09122643500281373</v>
-      </c>
-      <c r="G43">
         <v>4.05857117724277</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>1344</v>
@@ -1551,21 +1287,15 @@
         <v>401882</v>
       </c>
       <c r="D44">
-        <v>7051.339</v>
+        <v>0.1906020969917912</v>
       </c>
       <c r="E44">
-        <v>62166</v>
-      </c>
-      <c r="F44">
-        <v>0.1906020969917912</v>
-      </c>
-      <c r="G44">
         <v>6.464659138435801</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>957</v>
@@ -1574,21 +1304,15 @@
         <v>330000</v>
       </c>
       <c r="D45">
-        <v>30029.572</v>
+        <v>0.03186858607242221</v>
       </c>
       <c r="E45">
-        <v>67404</v>
-      </c>
-      <c r="F45">
-        <v>0.03186858607242221</v>
-      </c>
-      <c r="G45">
         <v>4.895851878226812</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>281</v>
@@ -1597,21 +1321,15 @@
         <v>510990</v>
       </c>
       <c r="D46">
-        <v>3380.8</v>
+        <v>0.08311642214860387</v>
       </c>
       <c r="E46">
-        <v>87649</v>
-      </c>
-      <c r="F46">
-        <v>0.08311642214860387</v>
-      </c>
-      <c r="G46">
         <v>5.829958128444135</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>647</v>
@@ -1620,21 +1338,15 @@
         <v>388000</v>
       </c>
       <c r="D47">
-        <v>8683.619000000001</v>
+        <v>0.07450810543392104</v>
       </c>
       <c r="E47">
-        <v>80268</v>
-      </c>
-      <c r="F47">
-        <v>0.07450810543392104</v>
-      </c>
-      <c r="G47">
         <v>4.833806747396222</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>30</v>
@@ -1643,21 +1355,15 @@
         <v>499450</v>
       </c>
       <c r="D48">
-        <v>647.064</v>
+        <v>0.04636326545751271</v>
       </c>
       <c r="E48">
-        <v>76079</v>
-      </c>
-      <c r="F48">
-        <v>0.04636326545751271</v>
-      </c>
-      <c r="G48">
         <v>6.564886499559668</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>418</v>
@@ -1666,21 +1372,15 @@
         <v>529900</v>
       </c>
       <c r="D49">
-        <v>7785.786</v>
+        <v>0.05368757887771382</v>
       </c>
       <c r="E49">
-        <v>87648</v>
-      </c>
-      <c r="F49">
-        <v>0.05368757887771382</v>
-      </c>
-      <c r="G49">
         <v>6.045774005111355</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>303</v>
@@ -1689,21 +1389,15 @@
         <v>289900</v>
       </c>
       <c r="D50">
-        <v>5892.539</v>
+        <v>0.05142095792662552</v>
       </c>
       <c r="E50">
-        <v>69943</v>
-      </c>
-      <c r="F50">
-        <v>0.05142095792662552</v>
-      </c>
-      <c r="G50">
         <v>4.144803625809588</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>90</v>
@@ -1712,21 +1406,15 @@
         <v>227000</v>
       </c>
       <c r="D51">
-        <v>1775.156</v>
+        <v>0.05069976948504808</v>
       </c>
       <c r="E51">
-        <v>46836</v>
-      </c>
-      <c r="F51">
-        <v>0.05069976948504808</v>
-      </c>
-      <c r="G51">
         <v>4.846699120334785</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>28</v>
@@ -1735,15 +1423,9 @@
         <v>295000</v>
       </c>
       <c r="D52">
-        <v>581.381</v>
+        <v>0.0481611886181351</v>
       </c>
       <c r="E52">
-        <v>71052</v>
-      </c>
-      <c r="F52">
-        <v>0.0481611886181351</v>
-      </c>
-      <c r="G52">
         <v>4.151888757529696</v>
       </c>
     </row>
